--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119763.6977202979</v>
+        <v>21211212.69602155</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119763.6977202979</v>
+        <v>21211212.69602155</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36225.94476235115</v>
+        <v>4538448.1197882</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36225.94476235115</v>
+        <v>4538448.1197882</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417762103.82598</v>
+        <v>52052644.77926345</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10952.72483095093</v>
+        <v>1099721.864144331</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21444.06477600202</v>
+        <v>2134325.164638992</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31957.57734904739</v>
+        <v>3168454.246072305</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42461.49927869187</v>
+        <v>4196886.357503825</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52866.78418874319</v>
+        <v>5242194.752890253</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63113.37275251508</v>
+        <v>6313558.006981143</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73381.49427695245</v>
+        <v>7411778.706911091</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83541.68438001697</v>
+        <v>8508083.474825911</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94250.43117752227</v>
+        <v>9537717.700353704</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104328.7187898423</v>
+        <v>10656164.13815765</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>114216.6431476685</v>
+        <v>11788768.59831342</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>124109.8043924562</v>
+        <v>12920082.2144783</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>133973.8468271339</v>
+        <v>14051395.8306434</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144718.1560104715</v>
+        <v>15066441.14508526</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156748.4279207269</v>
+        <v>15850853.96019172</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>2.601737161632627e-10</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>65</v>
